--- a/ATUReports/Results/Run_8/(ATUReports) Run_8.xlsx
+++ b/ATUReports/Results/Run_8/(ATUReports) Run_8.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="288">
   <si>
     <t>Total Test Cases</t>
   </si>
@@ -58,7 +58,7 @@
     <t>BatchExecution</t>
   </si>
   <si>
-    <t>UpdateVirtualMachine_Delete</t>
+    <t>UpdateVMScenario</t>
   </si>
   <si>
     <t>cNetLoginScenario</t>
@@ -67,448 +67,820 @@
     <t>1</t>
   </si>
   <si>
+    <t>10 Sec</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>ATU_TC_1</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_OpenStack_Dev59</t>
+  </si>
+  <si>
+    <t>111 Sec</t>
+  </si>
+  <si>
+    <t>ATU_TC_2</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_OpenStack_Prod32</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>101 Sec</t>
+  </si>
+  <si>
+    <t>ATU_TC_3</t>
+  </si>
+  <si>
+    <t>cNetLogoutScenario</t>
+  </si>
+  <si>
+    <t>3 Sec</t>
+  </si>
+  <si>
+    <t>ATU_TC_4</t>
+  </si>
+  <si>
+    <t>Step Description</t>
+  </si>
+  <si>
+    <t>Input Value</t>
+  </si>
+  <si>
+    <t>Expected value</t>
+  </si>
+  <si>
+    <t>Actual Value</t>
+  </si>
+  <si>
+    <t>Line No</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
+  </si>
+  <si>
+    <t>Passing URL in to browser</t>
+  </si>
+  <si>
+    <t>https://cnetglobaldemo1.service-now.com/</t>
+  </si>
+  <si>
+    <t>URL Should be passed in to browser</t>
+  </si>
+  <si>
+    <t>URL Launched successfully</t>
+  </si>
+  <si>
+    <t>8 Sec</t>
+  </si>
+  <si>
+    <t>546</t>
+  </si>
+  <si>
+    <t>Swicthing to Main Frame</t>
+  </si>
+  <si>
+    <t>gsft_main</t>
+  </si>
+  <si>
+    <t>Main Frame should be activited</t>
+  </si>
+  <si>
+    <t>Mainframe actitivited</t>
+  </si>
+  <si>
+    <t>144 Milli Sec</t>
+  </si>
+  <si>
+    <t>Click on Username</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>Username should be clicked</t>
+  </si>
+  <si>
+    <t>UserName clicked successfully</t>
+  </si>
+  <si>
+    <t>268 Milli Sec</t>
+  </si>
+  <si>
+    <t>Passing value in to username</t>
+  </si>
+  <si>
+    <t>maneeshn</t>
+  </si>
+  <si>
+    <t>Username should be entered</t>
+  </si>
+  <si>
+    <t>Username should be passed successfully</t>
+  </si>
+  <si>
+    <t>173 Milli Sec</t>
+  </si>
+  <si>
+    <t>Click on Password</t>
+  </si>
+  <si>
+    <t>user_password</t>
+  </si>
+  <si>
+    <t>Password should be clicked</t>
+  </si>
+  <si>
+    <t>Password clicked successfully</t>
+  </si>
+  <si>
+    <t>241 Milli Sec</t>
+  </si>
+  <si>
+    <t>Passing value in to Password</t>
+  </si>
+  <si>
+    <t>Maneeshnama@6468</t>
+  </si>
+  <si>
+    <t>Password should be entered</t>
+  </si>
+  <si>
+    <t>Password should be passed successfully</t>
+  </si>
+  <si>
+    <t>226 Milli Sec</t>
+  </si>
+  <si>
+    <t>Click on Login button</t>
+  </si>
+  <si>
+    <t>sysverb_login</t>
+  </si>
+  <si>
+    <t>Login button should be clicked</t>
+  </si>
+  <si>
+    <t>Login button clicked succesfully</t>
+  </si>
+  <si>
+    <t>5 Sec</t>
+  </si>
+  <si>
+    <t>Go To TestSuite Sheet</t>
+  </si>
+  <si>
+    <t>2 Sec</t>
+  </si>
+  <si>
+    <t>Passed AIMS in FilterNavigator</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>Find AIMS in search Navigator</t>
+  </si>
+  <si>
+    <t>Search Successful</t>
+  </si>
+  <si>
+    <t>6 Sec</t>
+  </si>
+  <si>
+    <t>clicked on launch Application</t>
+  </si>
+  <si>
+    <t>330b36b5134e7600aee43d7ed144b09a</t>
+  </si>
+  <si>
+    <t>Launch AIMS Application</t>
+  </si>
+  <si>
+    <t>Clicked Successful</t>
+  </si>
+  <si>
+    <t>65 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicked the UpdateVM</t>
+  </si>
+  <si>
+    <t>.//*[@id='xea03cb9a0ff53600d6254c6be1050e89']/div/div[2]/a[2]</t>
+  </si>
+  <si>
+    <t>Select UpdateVM from AIMS</t>
+  </si>
+  <si>
+    <t>Successfully Selected</t>
+  </si>
+  <si>
+    <t>Type of ServerOperation Field Choosen</t>
+  </si>
+  <si>
+    <t>IO:eba29ee80f0a7e00d6254c6be1050ec2</t>
+  </si>
+  <si>
+    <t>Select Update Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ServerOperation field was successfully selected </t>
+  </si>
+  <si>
+    <t>Selected Project lookup field</t>
+  </si>
+  <si>
+    <t>.//*[@id='lookup.IO:32a1cc970fa97200d6254c6be1050e8d']</t>
+  </si>
+  <si>
+    <t>Hit the Project LookupField</t>
+  </si>
+  <si>
+    <t>Successfully selected</t>
+  </si>
+  <si>
+    <t>437 Milli Sec</t>
+  </si>
+  <si>
+    <t>1 Sec</t>
+  </si>
+  <si>
+    <t>Selected PrimaryDataCenter lookup field</t>
+  </si>
+  <si>
+    <t>.//*[@id='lookup.IO:cbd3081b0fa97200d6254c6be1050e43']</t>
+  </si>
+  <si>
+    <t>Hit the PrimaryDataCenter LookupField</t>
+  </si>
+  <si>
+    <t>PrimaryDataCenterServerOperation field was successfully selected</t>
+  </si>
+  <si>
+    <t>380 Milli Sec</t>
+  </si>
+  <si>
+    <t>Dallas Was Selected</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Choose one PrimarydataCenter</t>
+  </si>
+  <si>
+    <t>149 Milli Sec</t>
+  </si>
+  <si>
+    <t>Selected PrimaryCloudPlatform lookup field</t>
+  </si>
+  <si>
+    <t>.//*[@id='lookup.IO:fbb4449b0fa97200d6254c6be1050e58']</t>
+  </si>
+  <si>
+    <t>Hit the PrimaryCloudPlatform LookupField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrimaryCloudPlatform field was successfully selected </t>
+  </si>
+  <si>
+    <t>840 Milli Sec</t>
+  </si>
+  <si>
+    <t>Choosen PrimaryCloud Field</t>
+  </si>
+  <si>
+    <t>OpenStack</t>
+  </si>
+  <si>
+    <t>Choose PrimaryCloud Field</t>
+  </si>
+  <si>
+    <t>222 Milli Sec</t>
+  </si>
+  <si>
+    <t>Selected cluster field</t>
+  </si>
+  <si>
+    <t>.//*[@id='lookup.IO:ef95dc9b0fe97200d6254c6be1050e4a']</t>
+  </si>
+  <si>
+    <t>click on Cluster Lookup field</t>
+  </si>
+  <si>
+    <t>Successfully hit the field</t>
+  </si>
+  <si>
+    <t>923 Milli Sec</t>
+  </si>
+  <si>
+    <t>Selected OpenStack-Aims</t>
+  </si>
+  <si>
+    <t>OpenStack-AIMS-CNET-01</t>
+  </si>
+  <si>
+    <t>Select one Cluster</t>
+  </si>
+  <si>
+    <t>Cluster select Successful</t>
+  </si>
+  <si>
+    <t>126 Milli Sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Server field </t>
+  </si>
+  <si>
+    <t>//a[@id='lookup.IO:92e0e0570f2d7200d6254c6be1050e8d']</t>
+  </si>
+  <si>
+    <t>click on Server Lookup field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected DEV-LNX-APACHE-63 </t>
+  </si>
+  <si>
+    <t>DEV-LNX-APACHE-59</t>
+  </si>
+  <si>
+    <t>Select One Server</t>
+  </si>
+  <si>
+    <t>Server Select Successful</t>
+  </si>
+  <si>
+    <t>131 Milli Sec</t>
+  </si>
+  <si>
+    <t>Selected Service Size</t>
+  </si>
+  <si>
+    <t>t2.nano</t>
+  </si>
+  <si>
+    <t>Select one Size</t>
+  </si>
+  <si>
+    <t>Select Successful</t>
+  </si>
+  <si>
+    <t>314 Milli Sec</t>
+  </si>
+  <si>
+    <t>Selected Additional Storage</t>
+  </si>
+  <si>
+    <t>IO:63efc4570fe97200d6254c6be1050e91</t>
+  </si>
+  <si>
+    <t>You need addition storage??</t>
+  </si>
+  <si>
+    <t>Yes Selected</t>
+  </si>
+  <si>
+    <t>410 Milli Sec</t>
+  </si>
+  <si>
+    <t>Selected NetApp Storage provider</t>
+  </si>
+  <si>
+    <t>IO:3b0298d70fe97200d6254c6be1050e05</t>
+  </si>
+  <si>
+    <t>Select Storage Provider</t>
+  </si>
+  <si>
+    <t>Select Successfull</t>
+  </si>
+  <si>
+    <t>427 Milli Sec</t>
+  </si>
+  <si>
+    <t>Provided Storage Name</t>
+  </si>
+  <si>
+    <t>IO:8a82501b0fe97200d6254c6be1050e6f</t>
+  </si>
+  <si>
+    <t>Provide Storge name</t>
+  </si>
+  <si>
+    <t>Successful</t>
+  </si>
+  <si>
+    <t>636 Milli Sec</t>
+  </si>
+  <si>
+    <t>Provided AggregateName</t>
+  </si>
+  <si>
+    <t>IO:82d2501b0fe97200d6254c6be1050e75</t>
+  </si>
+  <si>
+    <t>Provide Aggregate name</t>
+  </si>
+  <si>
+    <t>584 Milli Sec</t>
+  </si>
+  <si>
+    <t>Provided VServerId</t>
+  </si>
+  <si>
+    <t>IO:c8b2101b0fe97200d6254c6be1050ed3</t>
+  </si>
+  <si>
+    <t>Provide VServerId</t>
+  </si>
+  <si>
+    <t>417 Milli Sec</t>
+  </si>
+  <si>
+    <t>Entered 30</t>
+  </si>
+  <si>
+    <t>IO:dbf2101b0fe97200d6254c6be1050edd</t>
+  </si>
+  <si>
+    <t>prvoide Size</t>
+  </si>
+  <si>
+    <t>303 Milli Sec</t>
+  </si>
+  <si>
+    <t>Selected SizeUnit</t>
+  </si>
+  <si>
+    <t>IO:0213581b0fe97200d6254c6be1050e4d</t>
+  </si>
+  <si>
+    <t>Select SizeUnit</t>
+  </si>
+  <si>
+    <t>249 Milli Sec</t>
+  </si>
+  <si>
+    <t>45 Milli Sec</t>
+  </si>
+  <si>
     <t>7 Sec</t>
   </si>
   <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>ATU_TC_1</t>
-  </si>
-  <si>
-    <t>UpdateVM_Delete</t>
-  </si>
-  <si>
-    <t>36 Sec</t>
-  </si>
-  <si>
-    <t>ATU_TC_2</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>26 Sec</t>
-  </si>
-  <si>
-    <t>ATU_TC_3</t>
-  </si>
-  <si>
-    <t>cNetLogoutScenario</t>
-  </si>
-  <si>
-    <t>2 Sec</t>
-  </si>
-  <si>
-    <t>ATU_TC_4</t>
-  </si>
-  <si>
-    <t>Step Description</t>
-  </si>
-  <si>
-    <t>Input Value</t>
-  </si>
-  <si>
-    <t>Expected value</t>
-  </si>
-  <si>
-    <t>Actual Value</t>
-  </si>
-  <si>
-    <t>Line No</t>
-  </si>
-  <si>
-    <t>Screenshot</t>
-  </si>
-  <si>
-    <t>Passing URL in to browser</t>
-  </si>
-  <si>
-    <t>https://cnetglobaldemo1.service-now.com/</t>
-  </si>
-  <si>
-    <t>URL Should be passed in to browser</t>
-  </si>
-  <si>
-    <t>URL Launched successfully</t>
+    <t>Clicked OrderNow</t>
+  </si>
+  <si>
+    <t>oi_order_now_button</t>
+  </si>
+  <si>
+    <t>Place Your order</t>
+  </si>
+  <si>
+    <t>96 Milli Sec</t>
+  </si>
+  <si>
+    <t>243 Milli Sec</t>
+  </si>
+  <si>
+    <t>80 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicked User Menu</t>
+  </si>
+  <si>
+    <t>user_info_dropdown</t>
+  </si>
+  <si>
+    <t>Select An User</t>
+  </si>
+  <si>
+    <t>Select ImpersonateUser</t>
+  </si>
+  <si>
+    <t>Impersonate User</t>
+  </si>
+  <si>
+    <t>Choose An User</t>
+  </si>
+  <si>
+    <t>User Select Successful</t>
+  </si>
+  <si>
+    <t>206 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicked Search Bar</t>
+  </si>
+  <si>
+    <t>.//*[@id='s2id_autogen1']/a/span[2]/b</t>
+  </si>
+  <si>
+    <t>Slect Search for User</t>
+  </si>
+  <si>
+    <t>220 Milli Sec</t>
+  </si>
+  <si>
+    <t>Passed UserName</t>
+  </si>
+  <si>
+    <t>Maneesh Nama</t>
+  </si>
+  <si>
+    <t>Provide UserName</t>
+  </si>
+  <si>
+    <t>Successfully Provided</t>
+  </si>
+  <si>
+    <t>333 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicked SearchLabel</t>
+  </si>
+  <si>
+    <t>select2-result-label</t>
+  </si>
+  <si>
+    <t>Click search for user</t>
+  </si>
+  <si>
+    <t>396 Milli Sec</t>
+  </si>
+  <si>
+    <t>61 Milli Sec</t>
+  </si>
+  <si>
+    <t>28 Milli Sec</t>
+  </si>
+  <si>
+    <t>passed the requests in FilterNavigator</t>
+  </si>
+  <si>
+    <t>Search for requests</t>
+  </si>
+  <si>
+    <t>Succesfully passed</t>
+  </si>
+  <si>
+    <t>Clicked on Service catalog Requests</t>
+  </si>
+  <si>
+    <t>17e0b4990a04bf15013f9590408c419a</t>
+  </si>
+  <si>
+    <t>Click on ServiceCatalog Requests</t>
+  </si>
+  <si>
+    <t>56 Milli Sec</t>
+  </si>
+  <si>
+    <t>Passed The RequestNumber</t>
+  </si>
+  <si>
+    <t>//span[@id='sc_request_hide_search']/div/div/input</t>
+  </si>
+  <si>
+    <t>Search for Requests</t>
+  </si>
+  <si>
+    <t>431 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicked RequestNumber</t>
+  </si>
+  <si>
+    <t>REQ0010983</t>
+  </si>
+  <si>
+    <t>Click on request Number</t>
+  </si>
+  <si>
+    <t>87 Milli Sec</t>
+  </si>
+  <si>
+    <t>39 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicking on Request Number Which contains RITM after replacing REQ to RITM</t>
+  </si>
+  <si>
+    <t>RITM0011000</t>
+  </si>
+  <si>
+    <t>Replace ReqNum</t>
+  </si>
+  <si>
+    <t>102 Milli Sec</t>
+  </si>
+  <si>
+    <t>Changed request to approve</t>
+  </si>
+  <si>
+    <t>sc_req_item.approval</t>
+  </si>
+  <si>
+    <t>aprrove status</t>
+  </si>
+  <si>
+    <t>aproved successfully</t>
+  </si>
+  <si>
+    <t>718 Milli Sec</t>
+  </si>
+  <si>
+    <t>Updated form</t>
+  </si>
+  <si>
+    <t>sysverb_update</t>
+  </si>
+  <si>
+    <t>click update button</t>
+  </si>
+  <si>
+    <t>Successfull</t>
+  </si>
+  <si>
+    <t>4 Sec</t>
+  </si>
+  <si>
+    <t>83 Milli Sec</t>
+  </si>
+  <si>
+    <t>Replaced he request from REQ to RITM</t>
+  </si>
+  <si>
+    <t>Replace RITM</t>
+  </si>
+  <si>
+    <t>101 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicked on approval tab on RITM</t>
+  </si>
+  <si>
+    <t>//*[@id="tabs2_list"]/span[3]/span</t>
+  </si>
+  <si>
+    <t>Manager Approval</t>
+  </si>
+  <si>
+    <t>944 Milli Sec</t>
+  </si>
+  <si>
+    <t>43 Milli Sec</t>
   </si>
   <si>
     <t>9 Sec</t>
   </si>
   <si>
-    <t>549</t>
-  </si>
-  <si>
-    <t>Swicthing to Main Frame</t>
-  </si>
-  <si>
-    <t>gsft_main</t>
-  </si>
-  <si>
-    <t>Main Frame should be activited</t>
-  </si>
-  <si>
-    <t>Mainframe actitivited</t>
-  </si>
-  <si>
-    <t>171 Milli Sec</t>
-  </si>
-  <si>
-    <t>Click on Username</t>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>Username should be clicked</t>
-  </si>
-  <si>
-    <t>UserName clicked successfully</t>
-  </si>
-  <si>
-    <t>215 Milli Sec</t>
-  </si>
-  <si>
-    <t>Passing value in to username</t>
-  </si>
-  <si>
-    <t>maneeshn</t>
-  </si>
-  <si>
-    <t>Username should be entered</t>
-  </si>
-  <si>
-    <t>Username should be passed successfully</t>
-  </si>
-  <si>
-    <t>170 Milli Sec</t>
-  </si>
-  <si>
-    <t>Click on Password</t>
-  </si>
-  <si>
-    <t>user_password</t>
-  </si>
-  <si>
-    <t>Password should be clicked</t>
-  </si>
-  <si>
-    <t>Password clicked successfully</t>
-  </si>
-  <si>
-    <t>188 Milli Sec</t>
-  </si>
-  <si>
-    <t>Passing value in to Password</t>
-  </si>
-  <si>
-    <t>Maneeshnama@6468</t>
-  </si>
-  <si>
-    <t>Password should be entered</t>
-  </si>
-  <si>
-    <t>Password should be passed successfully</t>
-  </si>
-  <si>
-    <t>250 Milli Sec</t>
-  </si>
-  <si>
-    <t>Click on Login button</t>
-  </si>
-  <si>
-    <t>sysverb_login</t>
-  </si>
-  <si>
-    <t>Login button should be clicked</t>
-  </si>
-  <si>
-    <t>Login button clicked succesfully</t>
-  </si>
-  <si>
-    <t>Go To TestSuite Sheet</t>
-  </si>
-  <si>
-    <t>1 Sec</t>
-  </si>
-  <si>
-    <t>Passed AIMS in FilterNavigator</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>Find AIMS in search Navigator</t>
-  </si>
-  <si>
-    <t>Search Successful</t>
-  </si>
-  <si>
-    <t>5 Sec</t>
-  </si>
-  <si>
-    <t>clicked on launch Application</t>
-  </si>
-  <si>
-    <t>330b36b5134e7600aee43d7ed144b09a</t>
-  </si>
-  <si>
-    <t>Launch AIMS Application</t>
-  </si>
-  <si>
-    <t>Clicked Successful</t>
-  </si>
-  <si>
-    <t>3 Sec</t>
-  </si>
-  <si>
-    <t>99 Milli Sec</t>
-  </si>
-  <si>
-    <t>Clicked the UpdateVM</t>
-  </si>
-  <si>
-    <t>.//*[@id='xea03cb9a0ff53600d6254c6be1050e89']/div/div[2]/a[2]</t>
-  </si>
-  <si>
-    <t>Select UpdateVM from AIMS</t>
-  </si>
-  <si>
-    <t>Successfully Selected</t>
-  </si>
-  <si>
-    <t>Type of ServerOperation Field Choosen</t>
-  </si>
-  <si>
-    <t>IO:eba29ee80f0a7e00d6254c6be1050ec2</t>
-  </si>
-  <si>
-    <t>Select Update Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ServerOperation field was successfully selected </t>
-  </si>
-  <si>
-    <t>Selected Project lookup field</t>
-  </si>
-  <si>
-    <t>.//*[@id='lookup.IO:32a1cc970fa97200d6254c6be1050e8d']</t>
-  </si>
-  <si>
-    <t>Hit the Project LookupField</t>
-  </si>
-  <si>
-    <t>Successfully selected</t>
-  </si>
-  <si>
-    <t>398 Milli Sec</t>
-  </si>
-  <si>
-    <t>Selected PrimaryDataCenter lookup field</t>
-  </si>
-  <si>
-    <t>.//*[@id='lookup.IO:cbd3081b0fa97200d6254c6be1050e43']</t>
-  </si>
-  <si>
-    <t>Hit the PrimaryDataCenter LookupField</t>
-  </si>
-  <si>
-    <t>PrimaryDataCenterServerOperation field was successfully selected</t>
-  </si>
-  <si>
-    <t>359 Milli Sec</t>
-  </si>
-  <si>
-    <t>Dallas Was Selected</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>Choose one PrimarydataCenter</t>
-  </si>
-  <si>
-    <t>131 Milli Sec</t>
-  </si>
-  <si>
-    <t>Selected PrimaryCloudPlatform lookup field</t>
-  </si>
-  <si>
-    <t>.//*[@id='lookup.IO:fbb4449b0fa97200d6254c6be1050e58']</t>
-  </si>
-  <si>
-    <t>Hit the PrimaryCloudPlatform LookupField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrimaryCloudPlatform field was successfully selected </t>
-  </si>
-  <si>
-    <t>775 Milli Sec</t>
-  </si>
-  <si>
-    <t>Choosen PrimaryCloud Field</t>
-  </si>
-  <si>
-    <t>VMWare</t>
-  </si>
-  <si>
-    <t>Choose PrimaryCloud Field</t>
-  </si>
-  <si>
-    <t>260 Milli Sec</t>
-  </si>
-  <si>
-    <t>Selected VcenterHost</t>
-  </si>
-  <si>
-    <t>192.168.20.85</t>
-  </si>
-  <si>
-    <t>Select VcenterHost</t>
-  </si>
-  <si>
-    <t>Select Successful</t>
-  </si>
-  <si>
-    <t>327 Milli Sec</t>
-  </si>
-  <si>
-    <t>Selected ESXIHOST</t>
-  </si>
-  <si>
-    <t>192.168.10.227</t>
-  </si>
-  <si>
-    <t>Select ESXIHOST</t>
-  </si>
-  <si>
-    <t>493 Milli Sec</t>
-  </si>
-  <si>
-    <t>69 Milli Sec</t>
-  </si>
-  <si>
-    <t>Server</t>
-  </si>
-  <si>
-    <t>65 Milli Sec</t>
-  </si>
-  <si>
-    <t>Selected cluster field</t>
-  </si>
-  <si>
-    <t>.//*[@id='lookup.IO:ef95dc9b0fe97200d6254c6be1050e4a']</t>
-  </si>
-  <si>
-    <t>click on Cluster Lookup field</t>
-  </si>
-  <si>
-    <t>Successfully hit the field</t>
-  </si>
-  <si>
-    <t>619 Milli Sec</t>
-  </si>
-  <si>
-    <t>Selected OpenStack-Aims</t>
-  </si>
-  <si>
-    <t>VMWare-AIMS-CNET-01</t>
-  </si>
-  <si>
-    <t>Select one Cluster</t>
-  </si>
-  <si>
-    <t>Cluster select Successful</t>
-  </si>
-  <si>
-    <t>127 Milli Sec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected Server field </t>
-  </si>
-  <si>
-    <t>//a[@id='lookup.IO:92e0e0570f2d7200d6254c6be1050e8d']</t>
-  </si>
-  <si>
-    <t>click on Server Lookup field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected DEV-LNX-APACHE-63 </t>
-  </si>
-  <si>
-    <t>DEV-LNX-APACHE-59</t>
-  </si>
-  <si>
-    <t>Select One Server</t>
-  </si>
-  <si>
-    <t>Server Select Successful</t>
-  </si>
-  <si>
-    <t>140 Milli Sec</t>
-  </si>
-  <si>
-    <t>Clicked OrderNow</t>
-  </si>
-  <si>
-    <t>oi_order_now_button</t>
-  </si>
-  <si>
-    <t>Place Your order</t>
-  </si>
-  <si>
-    <t>Successful</t>
-  </si>
-  <si>
-    <t>684 Milli Sec</t>
+    <t>33 Milli Sec</t>
+  </si>
+  <si>
+    <t>sysapproval_approver.state</t>
+  </si>
+  <si>
+    <t>//form[@id='sysapproval_approver.do']/div/button</t>
+  </si>
+  <si>
+    <t>Clicked on Workflow in RITM Form</t>
+  </si>
+  <si>
+    <t>f590dc04c0a8016400eccedd5249fdb2</t>
+  </si>
+  <si>
+    <t>Show the workflow</t>
+  </si>
+  <si>
+    <t>Workflow clicked Successful</t>
+  </si>
+  <si>
+    <t>passed cmdb server list in filternavigator</t>
+  </si>
+  <si>
+    <t>cmdb_ci_server.list</t>
+  </si>
+  <si>
+    <t>pass cmdb server table in search navigator</t>
+  </si>
+  <si>
+    <t>Successfully passed and entered</t>
+  </si>
+  <si>
+    <t>967 Milli Sec</t>
+  </si>
+  <si>
+    <t>92 Milli Sec</t>
+  </si>
+  <si>
+    <t>429 Milli Sec</t>
+  </si>
+  <si>
+    <t>109 Milli Sec</t>
+  </si>
+  <si>
+    <t>644 Milli Sec</t>
+  </si>
+  <si>
+    <t>134 Milli Sec</t>
+  </si>
+  <si>
+    <t>940 Milli Sec</t>
+  </si>
+  <si>
+    <t>117 Milli Sec</t>
+  </si>
+  <si>
+    <t>854 Milli Sec</t>
+  </si>
+  <si>
+    <t>PRD-WIN-NGNX-32</t>
+  </si>
+  <si>
+    <t>129 Milli Sec</t>
+  </si>
+  <si>
+    <t>t2.2xlarge</t>
+  </si>
+  <si>
+    <t>269 Milli Sec</t>
+  </si>
+  <si>
+    <t>362 Milli Sec</t>
+  </si>
+  <si>
+    <t>281 Milli Sec</t>
+  </si>
+  <si>
+    <t>580 Milli Sec</t>
+  </si>
+  <si>
+    <t>538 Milli Sec</t>
+  </si>
+  <si>
+    <t>313 Milli Sec</t>
+  </si>
+  <si>
+    <t>263 Milli Sec</t>
   </si>
   <si>
     <t>118 Milli Sec</t>
   </si>
   <si>
-    <t>4 Sec</t>
-  </si>
-  <si>
-    <t>501 Milli Sec</t>
-  </si>
-  <si>
-    <t>316 Milli Sec</t>
-  </si>
-  <si>
-    <t>Dallas</t>
-  </si>
-  <si>
-    <t>137 Milli Sec</t>
-  </si>
-  <si>
-    <t>647 Milli Sec</t>
-  </si>
-  <si>
-    <t>OpenStack</t>
-  </si>
-  <si>
-    <t>172 Milli Sec</t>
-  </si>
-  <si>
-    <t>218 Milli Sec</t>
-  </si>
-  <si>
-    <t>68 Milli Sec</t>
-  </si>
-  <si>
-    <t>721 Milli Sec</t>
-  </si>
-  <si>
-    <t>OpenStack-AIMS-CNET-01</t>
-  </si>
-  <si>
-    <t>142 Milli Sec</t>
-  </si>
-  <si>
-    <t>PRD-WIN-NGNX-32</t>
-  </si>
-  <si>
-    <t>129 Milli Sec</t>
+    <t>29 Milli Sec</t>
+  </si>
+  <si>
+    <t>75 Milli Sec</t>
+  </si>
+  <si>
+    <t>163 Milli Sec</t>
+  </si>
+  <si>
+    <t>187 Milli Sec</t>
+  </si>
+  <si>
+    <t>176 Milli Sec</t>
+  </si>
+  <si>
+    <t>310 Milli Sec</t>
+  </si>
+  <si>
+    <t>832 Milli Sec</t>
+  </si>
+  <si>
+    <t>63 Milli Sec</t>
+  </si>
+  <si>
+    <t>36 Milli Sec</t>
+  </si>
+  <si>
+    <t>157 Milli Sec</t>
+  </si>
+  <si>
+    <t>REQ0010984</t>
+  </si>
+  <si>
+    <t>34 Milli Sec</t>
+  </si>
+  <si>
+    <t>RITM0011001</t>
+  </si>
+  <si>
+    <t>106 Milli Sec</t>
+  </si>
+  <si>
+    <t>487 Milli Sec</t>
+  </si>
+  <si>
+    <t>89 Milli Sec</t>
+  </si>
+  <si>
+    <t>62 Milli Sec</t>
   </si>
 </sst>
 </file>
@@ -1313,19 +1685,19 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s" s="21">
         <v>17</v>
       </c>
       <c r="H4" t="s" s="22">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -1339,19 +1711,19 @@
         <v>13</v>
       </c>
       <c r="D5" t="s" s="28">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s" s="29">
         <v>15</v>
       </c>
       <c r="F5" t="s" s="30">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s" s="23">
         <v>17</v>
       </c>
       <c r="H5" t="s" s="24">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1417,25 +1789,25 @@
         <v>4</v>
       </c>
       <c r="B1" t="s" s="34">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s" s="35">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s" s="36">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s" s="37">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s" s="38">
         <v>9</v>
       </c>
       <c r="G1" t="s" s="39">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s" s="40">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -1443,22 +1815,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2"/>
     </row>
@@ -1467,22 +1839,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3"/>
     </row>
@@ -1491,22 +1863,22 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4"/>
     </row>
@@ -1515,22 +1887,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5"/>
     </row>
@@ -1539,22 +1911,22 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6"/>
     </row>
@@ -1563,22 +1935,22 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7"/>
     </row>
@@ -1587,28 +1959,28 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="41">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
@@ -1653,25 +2025,25 @@
         <v>4</v>
       </c>
       <c r="B1" t="s" s="43">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s" s="44">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s" s="45">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s" s="46">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s" s="47">
         <v>9</v>
       </c>
       <c r="G1" t="s" s="48">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s" s="49">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -1679,22 +2051,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2"/>
     </row>
@@ -1703,22 +2075,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3"/>
     </row>
@@ -1727,22 +2099,22 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4"/>
     </row>
@@ -1751,22 +2123,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5"/>
     </row>
@@ -1775,22 +2147,22 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6"/>
     </row>
@@ -1799,22 +2171,22 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7"/>
     </row>
@@ -1823,22 +2195,22 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8"/>
     </row>
@@ -1847,22 +2219,22 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9"/>
     </row>
@@ -1871,22 +2243,22 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H10"/>
     </row>
@@ -1895,22 +2267,22 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11"/>
     </row>
@@ -1919,22 +2291,22 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H12"/>
     </row>
@@ -1943,22 +2315,22 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H13"/>
     </row>
@@ -1967,22 +2339,22 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14"/>
     </row>
@@ -1991,22 +2363,22 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15"/>
     </row>
@@ -2015,22 +2387,22 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H16"/>
     </row>
@@ -2039,22 +2411,22 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F17" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H17"/>
     </row>
@@ -2063,22 +2435,22 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H18"/>
     </row>
@@ -2087,22 +2459,22 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19"/>
     </row>
@@ -2111,22 +2483,22 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="F20" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H20"/>
     </row>
@@ -2135,22 +2507,22 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H21"/>
     </row>
@@ -2159,22 +2531,22 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H22"/>
     </row>
@@ -2183,22 +2555,22 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="F23" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23"/>
     </row>
@@ -2207,22 +2579,22 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H24"/>
     </row>
@@ -2231,22 +2603,22 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E25" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H25"/>
     </row>
@@ -2255,22 +2627,22 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="F26" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H26"/>
     </row>
@@ -2279,43 +2651,1003 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C27" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="E27" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="G27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" t="s">
+        <v>164</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" t="s">
+        <v>168</v>
+      </c>
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" t="s">
         <v>39</v>
       </c>
-      <c r="H27"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="50">
-        <v>69</v>
-      </c>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
+      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>175</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>176</v>
+      </c>
+      <c r="G36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" t="s">
+        <v>179</v>
+      </c>
+      <c r="E37" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" t="s">
+        <v>182</v>
+      </c>
+      <c r="E38" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" t="s">
+        <v>184</v>
+      </c>
+      <c r="G38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E39" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" t="s">
+        <v>188</v>
+      </c>
+      <c r="G39" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>189</v>
+      </c>
+      <c r="C40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" t="s">
+        <v>192</v>
+      </c>
+      <c r="F40" t="s">
+        <v>193</v>
+      </c>
+      <c r="G40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E41" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" t="s">
+        <v>197</v>
+      </c>
+      <c r="G41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>198</v>
+      </c>
+      <c r="G42" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>199</v>
+      </c>
+      <c r="G43" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" t="s">
+        <v>201</v>
+      </c>
+      <c r="E44" t="s">
+        <v>202</v>
+      </c>
+      <c r="F44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C45" t="s">
+        <v>204</v>
+      </c>
+      <c r="D45" t="s">
+        <v>205</v>
+      </c>
+      <c r="E45" t="s">
+        <v>151</v>
+      </c>
+      <c r="F45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>206</v>
+      </c>
+      <c r="G46" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>207</v>
+      </c>
+      <c r="C47" t="s">
+        <v>208</v>
+      </c>
+      <c r="D47" t="s">
+        <v>209</v>
+      </c>
+      <c r="E47" t="s">
+        <v>151</v>
+      </c>
+      <c r="F47" t="s">
+        <v>210</v>
+      </c>
+      <c r="G47" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" t="s">
+        <v>212</v>
+      </c>
+      <c r="D48" t="s">
+        <v>213</v>
+      </c>
+      <c r="E48" t="s">
+        <v>151</v>
+      </c>
+      <c r="F48" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>214</v>
+      </c>
+      <c r="G49" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>215</v>
+      </c>
+      <c r="G50" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51" t="s">
+        <v>217</v>
+      </c>
+      <c r="D51" t="s">
+        <v>218</v>
+      </c>
+      <c r="E51" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51" t="s">
+        <v>170</v>
+      </c>
+      <c r="G51" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>219</v>
+      </c>
+      <c r="G52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53" t="s">
+        <v>222</v>
+      </c>
+      <c r="E53" t="s">
+        <v>223</v>
+      </c>
+      <c r="F53" t="s">
+        <v>224</v>
+      </c>
+      <c r="G53" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>225</v>
+      </c>
+      <c r="C54" t="s">
+        <v>226</v>
+      </c>
+      <c r="D54" t="s">
+        <v>227</v>
+      </c>
+      <c r="E54" t="s">
+        <v>228</v>
+      </c>
+      <c r="F54" t="s">
+        <v>229</v>
+      </c>
+      <c r="G54" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" t="s">
+        <v>43</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>230</v>
+      </c>
+      <c r="G55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H55"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>231</v>
+      </c>
+      <c r="C56" t="s">
+        <v>217</v>
+      </c>
+      <c r="D56" t="s">
+        <v>232</v>
+      </c>
+      <c r="E56" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" t="s">
+        <v>77</v>
+      </c>
+      <c r="G56" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>233</v>
+      </c>
+      <c r="G57" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" t="s">
+        <v>235</v>
+      </c>
+      <c r="D58" t="s">
+        <v>236</v>
+      </c>
+      <c r="E58" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58" t="s">
+        <v>237</v>
+      </c>
+      <c r="G58" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>238</v>
+      </c>
+      <c r="G59" t="s">
+        <v>40</v>
+      </c>
+      <c r="H59"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>234</v>
+      </c>
+      <c r="C60" t="s">
+        <v>235</v>
+      </c>
+      <c r="D60" t="s">
+        <v>236</v>
+      </c>
+      <c r="E60" t="s">
+        <v>151</v>
+      </c>
+      <c r="F60" t="s">
+        <v>239</v>
+      </c>
+      <c r="G60" t="s">
+        <v>40</v>
+      </c>
+      <c r="H60"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>240</v>
+      </c>
+      <c r="G61" t="s">
+        <v>40</v>
+      </c>
+      <c r="H61"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>220</v>
+      </c>
+      <c r="C62" t="s">
+        <v>241</v>
+      </c>
+      <c r="D62" t="s">
+        <v>222</v>
+      </c>
+      <c r="E62" t="s">
+        <v>223</v>
+      </c>
+      <c r="F62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G62" t="s">
+        <v>40</v>
+      </c>
+      <c r="H62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>234</v>
+      </c>
+      <c r="C63" t="s">
+        <v>242</v>
+      </c>
+      <c r="D63" t="s">
+        <v>236</v>
+      </c>
+      <c r="E63" t="s">
+        <v>151</v>
+      </c>
+      <c r="F63" t="s">
+        <v>77</v>
+      </c>
+      <c r="G63" t="s">
+        <v>40</v>
+      </c>
+      <c r="H63"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>230</v>
+      </c>
+      <c r="G64" t="s">
+        <v>40</v>
+      </c>
+      <c r="H64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>243</v>
+      </c>
+      <c r="C65" t="s">
+        <v>244</v>
+      </c>
+      <c r="D65" t="s">
+        <v>245</v>
+      </c>
+      <c r="E65" t="s">
+        <v>246</v>
+      </c>
+      <c r="F65" t="s">
+        <v>96</v>
+      </c>
+      <c r="G65" t="s">
+        <v>40</v>
+      </c>
+      <c r="H65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" t="s">
+        <v>43</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>72</v>
+      </c>
+      <c r="G66" t="s">
+        <v>40</v>
+      </c>
+      <c r="H66"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>247</v>
+      </c>
+      <c r="C67" t="s">
+        <v>248</v>
+      </c>
+      <c r="D67" t="s">
+        <v>249</v>
+      </c>
+      <c r="E67" t="s">
+        <v>250</v>
+      </c>
+      <c r="F67" t="s">
+        <v>72</v>
+      </c>
+      <c r="G67" t="s">
+        <v>40</v>
+      </c>
+      <c r="H67"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="50">
+        <v>71</v>
+      </c>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A68:H68"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink location="'TestSuite'!A1" ref="A28"/>
+    <hyperlink location="'TestSuite'!A1" ref="A68"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2345,25 +3677,25 @@
         <v>4</v>
       </c>
       <c r="B1" t="s" s="52">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s" s="53">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s" s="54">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s" s="55">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s" s="56">
         <v>9</v>
       </c>
       <c r="G1" t="s" s="57">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s" s="58">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -2371,22 +3703,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2"/>
     </row>
@@ -2395,22 +3727,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
         <v>72</v>
       </c>
-      <c r="D3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
-      </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3"/>
     </row>
@@ -2419,22 +3751,22 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>147</v>
+        <v>251</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4"/>
     </row>
@@ -2443,22 +3775,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>148</v>
+        <v>252</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5"/>
     </row>
@@ -2467,22 +3799,22 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6"/>
     </row>
@@ -2491,22 +3823,22 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7"/>
     </row>
@@ -2515,22 +3847,22 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8"/>
     </row>
@@ -2539,22 +3871,22 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9"/>
     </row>
@@ -2563,22 +3895,22 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>151</v>
+        <v>253</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H10"/>
     </row>
@@ -2587,22 +3919,22 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11"/>
     </row>
@@ -2611,22 +3943,22 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H12"/>
     </row>
@@ -2635,22 +3967,22 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F13" t="s">
-        <v>154</v>
+        <v>255</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H13"/>
     </row>
@@ -2659,22 +3991,22 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14"/>
     </row>
@@ -2683,22 +4015,22 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>156</v>
+        <v>256</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15"/>
     </row>
@@ -2707,22 +4039,22 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H16"/>
     </row>
@@ -2731,22 +4063,22 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H17"/>
     </row>
@@ -2755,22 +4087,22 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H18"/>
     </row>
@@ -2779,22 +4111,22 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>259</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19"/>
     </row>
@@ -2803,22 +4135,22 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="F20" t="s">
-        <v>161</v>
+        <v>96</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H20"/>
     </row>
@@ -2827,22 +4159,22 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>261</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H21"/>
     </row>
@@ -2851,22 +4183,22 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E22" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>263</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H22"/>
     </row>
@@ -2875,22 +4207,22 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="F23" t="s">
-        <v>163</v>
+        <v>264</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23"/>
     </row>
@@ -2911,31 +4243,1063 @@
         <v>146</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c r="G24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" t="s">
+        <v>266</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" t="s">
+        <v>267</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" t="s">
+        <v>268</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" t="s">
+        <v>269</v>
+      </c>
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>270</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" t="s">
+        <v>170</v>
+      </c>
+      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>230</v>
+      </c>
+      <c r="G33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>271</v>
+      </c>
+      <c r="G34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>272</v>
+      </c>
+      <c r="G36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" t="s">
+        <v>179</v>
+      </c>
+      <c r="E37" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" t="s">
+        <v>273</v>
+      </c>
+      <c r="G37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" t="s">
+        <v>182</v>
+      </c>
+      <c r="E38" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" t="s">
+        <v>274</v>
+      </c>
+      <c r="G38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E39" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" t="s">
+        <v>275</v>
+      </c>
+      <c r="G39" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>189</v>
+      </c>
+      <c r="C40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" t="s">
+        <v>192</v>
+      </c>
+      <c r="F40" t="s">
+        <v>276</v>
+      </c>
+      <c r="G40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E41" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" t="s">
+        <v>277</v>
+      </c>
+      <c r="G41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>278</v>
+      </c>
+      <c r="G42" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>279</v>
+      </c>
+      <c r="G43" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" t="s">
+        <v>201</v>
+      </c>
+      <c r="E44" t="s">
+        <v>202</v>
+      </c>
+      <c r="F44" t="s">
         <v>39</v>
       </c>
-      <c r="H24"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="59">
-        <v>69</v>
-      </c>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
+      <c r="G44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C45" t="s">
+        <v>204</v>
+      </c>
+      <c r="D45" t="s">
+        <v>205</v>
+      </c>
+      <c r="E45" t="s">
+        <v>151</v>
+      </c>
+      <c r="F45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>280</v>
+      </c>
+      <c r="G46" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>207</v>
+      </c>
+      <c r="C47" t="s">
+        <v>208</v>
+      </c>
+      <c r="D47" t="s">
+        <v>209</v>
+      </c>
+      <c r="E47" t="s">
+        <v>151</v>
+      </c>
+      <c r="F47" t="s">
+        <v>197</v>
+      </c>
+      <c r="G47" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" t="s">
+        <v>281</v>
+      </c>
+      <c r="D48" t="s">
+        <v>213</v>
+      </c>
+      <c r="E48" t="s">
+        <v>151</v>
+      </c>
+      <c r="F48" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>174</v>
+      </c>
+      <c r="G49" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>282</v>
+      </c>
+      <c r="G50" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51" t="s">
+        <v>283</v>
+      </c>
+      <c r="D51" t="s">
+        <v>218</v>
+      </c>
+      <c r="E51" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51" t="s">
+        <v>77</v>
+      </c>
+      <c r="G51" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>284</v>
+      </c>
+      <c r="G52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53" t="s">
+        <v>222</v>
+      </c>
+      <c r="E53" t="s">
+        <v>223</v>
+      </c>
+      <c r="F53" t="s">
+        <v>285</v>
+      </c>
+      <c r="G53" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>225</v>
+      </c>
+      <c r="C54" t="s">
+        <v>226</v>
+      </c>
+      <c r="D54" t="s">
+        <v>227</v>
+      </c>
+      <c r="E54" t="s">
+        <v>228</v>
+      </c>
+      <c r="F54" t="s">
+        <v>229</v>
+      </c>
+      <c r="G54" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" t="s">
+        <v>43</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>286</v>
+      </c>
+      <c r="G55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H55"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>231</v>
+      </c>
+      <c r="C56" t="s">
+        <v>283</v>
+      </c>
+      <c r="D56" t="s">
+        <v>232</v>
+      </c>
+      <c r="E56" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" t="s">
+        <v>77</v>
+      </c>
+      <c r="G56" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>230</v>
+      </c>
+      <c r="G57" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" t="s">
+        <v>235</v>
+      </c>
+      <c r="D58" t="s">
+        <v>236</v>
+      </c>
+      <c r="E58" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58" t="s">
+        <v>259</v>
+      </c>
+      <c r="G58" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>287</v>
+      </c>
+      <c r="G59" t="s">
+        <v>40</v>
+      </c>
+      <c r="H59"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>234</v>
+      </c>
+      <c r="C60" t="s">
+        <v>235</v>
+      </c>
+      <c r="D60" t="s">
+        <v>236</v>
+      </c>
+      <c r="E60" t="s">
+        <v>151</v>
+      </c>
+      <c r="F60" t="s">
+        <v>239</v>
+      </c>
+      <c r="G60" t="s">
+        <v>40</v>
+      </c>
+      <c r="H60"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>215</v>
+      </c>
+      <c r="G61" t="s">
+        <v>40</v>
+      </c>
+      <c r="H61"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>220</v>
+      </c>
+      <c r="C62" t="s">
+        <v>241</v>
+      </c>
+      <c r="D62" t="s">
+        <v>222</v>
+      </c>
+      <c r="E62" t="s">
+        <v>223</v>
+      </c>
+      <c r="F62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G62" t="s">
+        <v>40</v>
+      </c>
+      <c r="H62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>234</v>
+      </c>
+      <c r="C63" t="s">
+        <v>242</v>
+      </c>
+      <c r="D63" t="s">
+        <v>236</v>
+      </c>
+      <c r="E63" t="s">
+        <v>151</v>
+      </c>
+      <c r="F63" t="s">
+        <v>77</v>
+      </c>
+      <c r="G63" t="s">
+        <v>40</v>
+      </c>
+      <c r="H63"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>230</v>
+      </c>
+      <c r="G64" t="s">
+        <v>40</v>
+      </c>
+      <c r="H64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>243</v>
+      </c>
+      <c r="C65" t="s">
+        <v>244</v>
+      </c>
+      <c r="D65" t="s">
+        <v>245</v>
+      </c>
+      <c r="E65" t="s">
+        <v>246</v>
+      </c>
+      <c r="F65" t="s">
+        <v>96</v>
+      </c>
+      <c r="G65" t="s">
+        <v>40</v>
+      </c>
+      <c r="H65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" t="s">
+        <v>43</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>72</v>
+      </c>
+      <c r="G66" t="s">
+        <v>40</v>
+      </c>
+      <c r="H66"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>247</v>
+      </c>
+      <c r="C67" t="s">
+        <v>248</v>
+      </c>
+      <c r="D67" t="s">
+        <v>249</v>
+      </c>
+      <c r="E67" t="s">
+        <v>250</v>
+      </c>
+      <c r="F67" t="s">
+        <v>72</v>
+      </c>
+      <c r="G67" t="s">
+        <v>40</v>
+      </c>
+      <c r="H67"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="59">
+        <v>71</v>
+      </c>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A68:H68"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink location="'TestSuite'!A1" ref="A25"/>
+    <hyperlink location="'TestSuite'!A1" ref="A68"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2965,30 +5329,30 @@
         <v>4</v>
       </c>
       <c r="B1" t="s" s="61">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s" s="62">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s" s="63">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s" s="64">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s" s="65">
         <v>9</v>
       </c>
       <c r="G1" t="s" s="66">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s" s="67">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="68">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
